--- a/Site Organization.xlsx
+++ b/Site Organization.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -423,180 +423,180 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="D12" s="1">
         <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Site Organization.xlsx
+++ b/Site Organization.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Bowman</t>
   </si>
@@ -63,6 +64,9 @@
   </si>
   <si>
     <t>Plant Diversity</t>
+  </si>
+  <si>
+    <t>Blooming.Species</t>
   </si>
 </sst>
 </file>
@@ -420,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B7B410-9A98-41B3-9259-44AA2E0C2DFE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,10 +436,11 @@
     <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -444,8 +449,11 @@
         <v>12</v>
       </c>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +466,11 @@
       <c r="D2" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -472,8 +483,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -486,8 +500,11 @@
       <c r="D4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -500,8 +517,11 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -514,8 +534,11 @@
       <c r="D6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -528,8 +551,11 @@
       <c r="D7" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -542,8 +568,11 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -556,8 +585,11 @@
       <c r="D9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -570,8 +602,11 @@
       <c r="D10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -584,8 +619,11 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -597,6 +635,9 @@
       </c>
       <c r="D12" s="1">
         <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -609,4 +650,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3629EA1-5028-40E9-B40B-12B8B258B13C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Site Organization.xlsx
+++ b/Site Organization.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morga\Documents\ISU\Project\mmackert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morgan Mackert\Documents\ISU\Project\mmackert\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE94CD0-46AF-487D-ACF5-440AE714ECAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{A51266B0-19FE-45DA-B2D3-9DE82AE5D38E}"/>
+    <workbookView xWindow="0" yWindow="1152" windowWidth="23040" windowHeight="8088" xr2:uid="{A51266B0-19FE-45DA-B2D3-9DE82AE5D38E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +428,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -484,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -495,13 +496,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -512,13 +513,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -529,13 +530,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
       <c r="E6" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,13 +547,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -569,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -580,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -597,13 +598,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -620,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,11 +638,11 @@
         <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="2">
